--- a/Pathology_locations_with_lat_long.xlsx
+++ b/Pathology_locations_with_lat_long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoac\repos\coordinates-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0696E3-8CBC-483A-B164-C6F527F50D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A24B4-BD6B-409D-ABFD-B488CBB09CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="349">
   <si>
     <t>Type of location</t>
   </si>
@@ -34,12 +34,18 @@
     <t>Longitude</t>
   </si>
   <si>
+    <t>API Generated</t>
+  </si>
+  <si>
     <t>Site</t>
   </si>
   <si>
     <t>Amaroo Medical Community Clinic</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>ARMY-Cairns</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Coen Primary Health Care Centre</t>
@@ -1420,20 +1429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D340"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C205" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,13 +1456,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>-16.995499500000001</v>
@@ -1460,13 +1473,16 @@
       <c r="D2">
         <v>145.44100159999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>-16.919866500000001</v>
@@ -1474,13 +1490,16 @@
       <c r="D3">
         <v>145.76918019999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>-19.2616348</v>
@@ -1488,13 +1507,16 @@
       <c r="D4">
         <v>146.81684000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>-17.266285799999999</v>
@@ -1502,13 +1524,16 @@
       <c r="D5">
         <v>145.4829378</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>-19.252839399999999</v>
@@ -1516,13 +1541,16 @@
       <c r="D6">
         <v>146.8118834</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>-13.3542173</v>
@@ -1530,13 +1558,16 @@
       <c r="D7">
         <v>141.7265165</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>-37.811102099999999</v>
@@ -1544,13 +1575,16 @@
       <c r="D8">
         <v>144.94964479999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>-19.564260600000001</v>
@@ -1558,13 +1592,16 @@
       <c r="D9">
         <v>147.4086302</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>-17.3427945</v>
@@ -1572,13 +1609,16 @@
       <c r="D10">
         <v>145.91922360000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>-17.3427945</v>
@@ -1586,13 +1626,16 @@
       <c r="D11">
         <v>145.91922360000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>-10.165058500000001</v>
@@ -1600,13 +1643,16 @@
       <c r="D12">
         <v>142.16658219999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>-10.894262299999999</v>
@@ -1614,13 +1660,16 @@
       <c r="D13">
         <v>142.38512030000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>-9.3778629000000002</v>
@@ -1628,13 +1677,16 @@
       <c r="D14">
         <v>142.62181229999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>-41.259532800000002</v>
@@ -1642,13 +1694,16 @@
       <c r="D15">
         <v>174.76688390000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>-17.732031800000001</v>
@@ -1656,13 +1711,16 @@
       <c r="D16">
         <v>139.54868540000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>-17.740729099999999</v>
@@ -1670,13 +1728,16 @@
       <c r="D17">
         <v>139.54810330000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>-17.740729099999999</v>
@@ -1684,13 +1745,16 @@
       <c r="D18">
         <v>139.54810330000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>-16.911947399999999</v>
@@ -1698,13 +1762,16 @@
       <c r="D19">
         <v>145.76859350000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>-16.915160199999999</v>
@@ -1712,13 +1779,16 @@
       <c r="D20">
         <v>145.77075869999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>-16.902730900000002</v>
@@ -1726,13 +1796,16 @@
       <c r="D21">
         <v>145.75642389999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>-19.918020800000001</v>
@@ -1740,13 +1813,16 @@
       <c r="D22">
         <v>138.12199390000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>-19.918020800000001</v>
@@ -1754,13 +1830,16 @@
       <c r="D23">
         <v>138.12199390000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>-20.0760805</v>
@@ -1768,13 +1847,16 @@
       <c r="D24">
         <v>146.26415510000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>-17.150176900000002</v>
@@ -1782,13 +1864,16 @@
       <c r="D25">
         <v>144.52796889999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>-17.150176900000002</v>
@@ -1796,13 +1881,16 @@
       <c r="D26">
         <v>144.52796889999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>-22.8278596</v>
@@ -1810,13 +1898,16 @@
       <c r="D27">
         <v>147.63280090000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>-22.8278596</v>
@@ -1824,13 +1915,16 @@
       <c r="D28">
         <v>147.63280090000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>-20.7043316</v>
@@ -1838,13 +1932,16 @@
       <c r="D29">
         <v>140.52758929999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>-20.7043316</v>
@@ -1852,27 +1949,33 @@
       <c r="D30">
         <v>140.52758929999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>-13.945095999999999</v>
@@ -1880,13 +1983,16 @@
       <c r="D32">
         <v>143.2012024</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>-20.546040699999999</v>
@@ -1894,13 +2000,16 @@
       <c r="D33">
         <v>147.83840430000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>-20.546040699999999</v>
@@ -1908,13 +2017,16 @@
       <c r="D34">
         <v>147.83840430000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>-15.478180099999999</v>
@@ -1922,13 +2034,16 @@
       <c r="D35">
         <v>145.24956090000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>-16.202349600000002</v>
@@ -1936,13 +2051,16 @@
       <c r="D36">
         <v>145.40419009999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>-16.202349600000002</v>
@@ -1950,41 +2068,50 @@
       <c r="D37">
         <v>145.40419009999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>-18.211212100000001</v>
@@ -1992,13 +2119,16 @@
       <c r="D40">
         <v>142.2401275</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>-21.693957600000001</v>
@@ -2006,13 +2136,16 @@
       <c r="D41">
         <v>139.5147753</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>-21.693957600000001</v>
@@ -2020,13 +2153,16 @@
       <c r="D42">
         <v>139.5147753</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>-21.693957600000001</v>
@@ -2034,13 +2170,16 @@
       <c r="D43">
         <v>139.5147753</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>-9.5984173999999989</v>
@@ -2048,13 +2187,16 @@
       <c r="D44">
         <v>143.7627387</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>-17.146797100000001</v>
@@ -2062,13 +2204,16 @@
       <c r="D45">
         <v>145.10649100000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>-17.146797100000001</v>
@@ -2076,13 +2221,16 @@
       <c r="D46">
         <v>145.10649100000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>-17.9425016</v>
@@ -2090,13 +2238,16 @@
       <c r="D47">
         <v>138.82854370000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>-17.9425016</v>
@@ -2104,13 +2255,16 @@
       <c r="D48">
         <v>138.82854370000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>-9.3778629000000002</v>
@@ -2118,13 +2272,16 @@
       <c r="D49">
         <v>142.62181229999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>-22.582658500000001</v>
@@ -2132,13 +2289,16 @@
       <c r="D50">
         <v>148.35297589999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>-23.371973199999999</v>
@@ -2146,13 +2306,16 @@
       <c r="D51">
         <v>150.50176379999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>-18.5881197</v>
@@ -2160,41 +2323,50 @@
       <c r="D52">
         <v>143.60365530000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>-18.2922273</v>
@@ -2202,13 +2374,16 @@
       <c r="D55">
         <v>143.54721850000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>-20.7308184</v>
@@ -2216,13 +2391,16 @@
       <c r="D56">
         <v>139.4929697</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>-17.087480899999999</v>
@@ -2230,13 +2408,16 @@
       <c r="D57">
         <v>145.78623479999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>-16.931371899999998</v>
@@ -2244,13 +2425,16 @@
       <c r="D58">
         <v>145.87785959999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>-17.3802731</v>
@@ -2258,13 +2442,16 @@
       <c r="D59">
         <v>145.38042369999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C60">
         <v>-19.6615325</v>
@@ -2272,13 +2459,16 @@
       <c r="D60">
         <v>147.41624340000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>-15.294112699999999</v>
@@ -2286,13 +2476,16 @@
       <c r="D61">
         <v>145.10597509999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>-10.594532299999999</v>
@@ -2300,13 +2493,16 @@
       <c r="D62">
         <v>142.24930889999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>-20.843001600000001</v>
@@ -2314,13 +2510,16 @@
       <c r="D63">
         <v>144.1880261</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <v>-20.843001600000001</v>
@@ -2328,13 +2527,16 @@
       <c r="D64">
         <v>144.1880261</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C65">
         <v>-18.647176000000002</v>
@@ -2342,13 +2544,16 @@
       <c r="D65">
         <v>146.16024400000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <v>-18.6522851</v>
@@ -2356,13 +2561,16 @@
       <c r="D66">
         <v>146.16409920000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C67">
         <v>-17.5192312</v>
@@ -2370,13 +2578,16 @@
       <c r="D67">
         <v>146.03031110000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C68">
         <v>-18.732885899999999</v>
@@ -2384,13 +2595,16 @@
       <c r="D68">
         <v>146.5783926</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>-18.125764400000001</v>
@@ -2398,13 +2612,16 @@
       <c r="D69">
         <v>145.7996186</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C70">
         <v>-20.6561907</v>
@@ -2412,13 +2629,16 @@
       <c r="D70">
         <v>141.74992219999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>-20.6561907</v>
@@ -2426,13 +2646,16 @@
       <c r="D71">
         <v>141.74992219999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C72">
         <v>-17.484900100000001</v>
@@ -2440,13 +2663,16 @@
       <c r="D72">
         <v>140.84149669999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C73">
         <v>-17.484900100000001</v>
@@ -2454,13 +2680,16 @@
       <c r="D73">
         <v>140.84149669999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C74">
         <v>-19.3041828</v>
@@ -2468,13 +2697,16 @@
       <c r="D74">
         <v>146.73322479999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C75">
         <v>-15.4757452</v>
@@ -2482,13 +2714,16 @@
       <c r="D75">
         <v>141.74636839999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C76">
         <v>-10.2348172</v>
@@ -2496,27 +2731,33 @@
       <c r="D76">
         <v>142.2168356</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C78">
         <v>-15.559380600000001</v>
@@ -2524,13 +2765,16 @@
       <c r="D78">
         <v>144.44638520000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C79">
         <v>-12.786103300000001</v>
@@ -2538,13 +2782,16 @@
       <c r="D79">
         <v>143.34376349999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C80">
         <v>-17.1124458</v>
@@ -2552,13 +2799,16 @@
       <c r="D80">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C81">
         <v>-17.1124458</v>
@@ -2566,13 +2816,16 @@
       <c r="D81">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C82">
         <v>-17.1124458</v>
@@ -2580,13 +2833,16 @@
       <c r="D82">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C83">
         <v>-17.1124458</v>
@@ -2594,13 +2850,16 @@
       <c r="D83">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C84">
         <v>-17.1124458</v>
@@ -2608,13 +2867,16 @@
       <c r="D84">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C85">
         <v>-17.1124458</v>
@@ -2622,13 +2884,16 @@
       <c r="D85">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C86">
         <v>-17.1124458</v>
@@ -2636,13 +2901,16 @@
       <c r="D86">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C87">
         <v>-17.1124458</v>
@@ -2650,13 +2918,16 @@
       <c r="D87">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C88">
         <v>-17.1124458</v>
@@ -2664,13 +2935,16 @@
       <c r="D88">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C89">
         <v>-17.1124458</v>
@@ -2678,13 +2952,16 @@
       <c r="D89">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C90">
         <v>-17.1124458</v>
@@ -2692,13 +2969,16 @@
       <c r="D90">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C91">
         <v>-17.1124458</v>
@@ -2706,13 +2986,16 @@
       <c r="D91">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C92">
         <v>-17.1124458</v>
@@ -2720,13 +3003,16 @@
       <c r="D92">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C93">
         <v>-17.1124458</v>
@@ -2734,13 +3020,16 @@
       <c r="D93">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C94">
         <v>-17.1124458</v>
@@ -2748,13 +3037,16 @@
       <c r="D94">
         <v>145.3614432</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C95">
         <v>-9.954037099999999</v>
@@ -2762,13 +3054,16 @@
       <c r="D95">
         <v>142.19153009999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C96">
         <v>-21.146536600000001</v>
@@ -2776,13 +3071,16 @@
       <c r="D96">
         <v>149.1552332</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C97">
         <v>-21.139608299999999</v>
@@ -2790,13 +3088,16 @@
       <c r="D97">
         <v>149.18180839999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C98">
         <v>-21.146536600000001</v>
@@ -2804,13 +3105,16 @@
       <c r="D98">
         <v>149.1552332</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C99">
         <v>-21.1449821</v>
@@ -2818,13 +3122,16 @@
       <c r="D99">
         <v>149.16855620000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C100">
         <v>-19.157708299999999</v>
@@ -2832,13 +3139,16 @@
       <c r="D100">
         <v>146.84963690000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C101">
         <v>-19.157708299999999</v>
@@ -2846,13 +3156,16 @@
       <c r="D101">
         <v>146.84963690000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C102">
         <v>-12.684514399999999</v>
@@ -2860,13 +3173,16 @@
       <c r="D102">
         <v>141.8896134</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C103">
         <v>-17.354042700000001</v>
@@ -2874,13 +3190,16 @@
       <c r="D103">
         <v>145.5941077</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C104">
         <v>-17.354042700000001</v>
@@ -2888,13 +3207,16 @@
       <c r="D104">
         <v>145.5941077</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C105">
         <v>-12.016779400000001</v>
@@ -2902,13 +3224,16 @@
       <c r="D105">
         <v>141.90035320000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C106">
         <v>-16.987493400000002</v>
@@ -2916,13 +3241,16 @@
       <c r="D106">
         <v>145.42453599999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C107">
         <v>-16.987493400000002</v>
@@ -2930,13 +3258,16 @@
       <c r="D107">
         <v>145.42453599999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C108">
         <v>-17.514482000000001</v>
@@ -2944,13 +3275,16 @@
       <c r="D108">
         <v>145.60809</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C109">
         <v>-22.002141300000002</v>
@@ -2958,13 +3292,16 @@
       <c r="D109">
         <v>148.0556565</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C110">
         <v>-16.664729399999999</v>
@@ -2972,13 +3309,16 @@
       <c r="D110">
         <v>139.18100920000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C111">
         <v>-16.464094200000002</v>
@@ -2986,13 +3326,16 @@
       <c r="D111">
         <v>145.36813290000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C112">
         <v>-16.464074100000001</v>
@@ -3000,13 +3343,16 @@
       <c r="D112">
         <v>145.36815469999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C113">
         <v>-16.464074100000001</v>
@@ -3014,13 +3360,16 @@
       <c r="D113">
         <v>145.36815469999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C114">
         <v>-17.678895900000001</v>
@@ -3028,13 +3377,16 @@
       <c r="D114">
         <v>145.1131896</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C115">
         <v>-17.678895900000001</v>
@@ -3042,13 +3394,16 @@
       <c r="D115">
         <v>145.1131896</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C116">
         <v>-20.730654999999999</v>
@@ -3056,13 +3411,16 @@
       <c r="D116">
         <v>139.4931492</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C117">
         <v>-20.727022999999999</v>
@@ -3070,13 +3428,16 @@
       <c r="D117">
         <v>139.48747470000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C118">
         <v>-20.727022999999999</v>
@@ -3084,13 +3445,16 @@
       <c r="D118">
         <v>139.48747470000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C119">
         <v>-35.654750700000001</v>
@@ -3098,13 +3462,16 @@
       <c r="D119">
         <v>137.6375094</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C120">
         <v>-12.684514399999999</v>
@@ -3112,13 +3479,16 @@
       <c r="D120">
         <v>141.8896134</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C121">
         <v>-17.672514100000001</v>
@@ -3126,13 +3496,16 @@
       <c r="D121">
         <v>141.08140979999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C122">
         <v>-19.252926800000001</v>
@@ -3140,13 +3513,16 @@
       <c r="D122">
         <v>146.81220959999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C123">
         <v>-18.732885899999999</v>
@@ -3154,13 +3530,16 @@
       <c r="D123">
         <v>146.5783926</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C124">
         <v>-19.304270500000001</v>
@@ -3168,13 +3547,16 @@
       <c r="D124">
         <v>146.73040560000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C125">
         <v>-14.8998679</v>
@@ -3182,13 +3564,16 @@
       <c r="D125">
         <v>141.6220984</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C126">
         <v>-20.400058699999999</v>
@@ -3196,13 +3581,16 @@
       <c r="D126">
         <v>148.58495679999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C127">
         <v>-17.607434999999999</v>
@@ -3210,13 +3598,16 @@
       <c r="D127">
         <v>145.4821211</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C128">
         <v>-17.607434999999999</v>
@@ -3224,27 +3615,33 @@
       <c r="D128">
         <v>145.4821211</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E129" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C130">
         <v>-9.3778629000000002</v>
@@ -3252,13 +3649,16 @@
       <c r="D130">
         <v>142.62181229999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C131">
         <v>-21.422433999999999</v>
@@ -3266,27 +3666,33 @@
       <c r="D131">
         <v>149.22265580000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C133">
         <v>-9.7521127000000014</v>
@@ -3294,13 +3700,16 @@
       <c r="D133">
         <v>143.41506939999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C134">
         <v>-10.588217200000001</v>
@@ -3308,13 +3717,16 @@
       <c r="D134">
         <v>142.21043940000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C135">
         <v>-19.320556499999999</v>
@@ -3322,13 +3734,16 @@
       <c r="D135">
         <v>146.76218460000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C136">
         <v>-19.252970900000001</v>
@@ -3336,13 +3751,16 @@
       <c r="D136">
         <v>146.8121414</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C137">
         <v>-19.260715000000001</v>
@@ -3350,13 +3768,16 @@
       <c r="D137">
         <v>146.81314219999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C138">
         <v>-17.927825299999999</v>
@@ -3364,13 +3785,16 @@
       <c r="D138">
         <v>145.9241763</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C139">
         <v>-11.6499191</v>
@@ -3378,13 +3802,16 @@
       <c r="D139">
         <v>133.39039260000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C140">
         <v>-12.6219322</v>
@@ -3392,13 +3819,16 @@
       <c r="D140">
         <v>141.87768399999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C141">
         <v>-12.6409298</v>
@@ -3406,13 +3836,16 @@
       <c r="D141">
         <v>141.8668869</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C142">
         <v>-15.9487638</v>
@@ -3420,13 +3853,16 @@
       <c r="D142">
         <v>145.31857289999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C143">
         <v>-15.9487638</v>
@@ -3434,13 +3870,16 @@
       <c r="D143">
         <v>145.31857289999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C144">
         <v>-9.7521127000000014</v>
@@ -3448,13 +3887,16 @@
       <c r="D144">
         <v>143.41506939999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C145">
         <v>-16.931371899999998</v>
@@ -3462,13 +3904,16 @@
       <c r="D145">
         <v>145.87785959999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C146">
         <v>-16.931597199999999</v>
@@ -3476,13 +3921,16 @@
       <c r="D146">
         <v>145.8777116</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C147">
         <v>-9.7521127000000014</v>
@@ -3490,13 +3938,16 @@
       <c r="D147">
         <v>143.41506939999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C148">
         <v>-17.960511799999999</v>
@@ -3504,13 +3955,16 @@
       <c r="D148">
         <v>122.23654689999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C149">
         <v>-17.958024900000002</v>
@@ -3518,13 +3972,16 @@
       <c r="D149">
         <v>122.2412945</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C150">
         <v>-10.4252798</v>
@@ -3532,13 +3989,16 @@
       <c r="D150">
         <v>105.683317</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C151">
         <v>-17.307305100000001</v>
@@ -3546,13 +4006,16 @@
       <c r="D151">
         <v>123.6386285</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C152">
         <v>-18.191109099999998</v>
@@ -3560,13 +4023,16 @@
       <c r="D152">
         <v>125.56285459999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C153">
         <v>-18.2253978</v>
@@ -3574,13 +4040,16 @@
       <c r="D153">
         <v>127.66738669999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C154">
         <v>-20.413318400000001</v>
@@ -3588,13 +4057,16 @@
       <c r="D154">
         <v>118.59891279999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C155">
         <v>-20.413615</v>
@@ -3602,13 +4074,16 @@
       <c r="D155">
         <v>118.5970353</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C156">
         <v>-20.732529100000001</v>
@@ -3616,13 +4091,16 @@
       <c r="D156">
         <v>116.8408618</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C157">
         <v>-15.7756344</v>
@@ -3630,13 +4108,16 @@
       <c r="D157">
         <v>128.73438859999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C158">
         <v>-21.173511999999999</v>
@@ -3644,13 +4125,16 @@
       <c r="D158">
         <v>119.7429245</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C159">
         <v>-23.354798599999999</v>
@@ -3658,13 +4142,16 @@
       <c r="D159">
         <v>119.7359958</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C160">
         <v>-20.746992899999999</v>
@@ -3672,13 +4159,16 @@
       <c r="D160">
         <v>116.81784279999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C161">
         <v>-21.8868276</v>
@@ -3686,13 +4176,16 @@
       <c r="D161">
         <v>120.10879060000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C162">
         <v>-21.643216800000001</v>
@@ -3700,13 +4193,16 @@
       <c r="D162">
         <v>115.1151313</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C163">
         <v>-23.202998999999998</v>
@@ -3714,13 +4210,16 @@
       <c r="D163">
         <v>117.6708412</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C164">
         <v>-20.776335599999999</v>
@@ -3728,13 +4227,16 @@
       <c r="D164">
         <v>117.1438371</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C165">
         <v>-20.721211100000001</v>
@@ -3742,13 +4244,16 @@
       <c r="D165">
         <v>117.133492</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C166">
         <v>-22.695447999999999</v>
@@ -3756,13 +4261,16 @@
       <c r="D166">
         <v>117.7902462</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C167">
         <v>-17.354191799999999</v>
@@ -3770,13 +4278,16 @@
       <c r="D167">
         <v>123.6772048</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C168">
         <v>-15.4780187</v>
@@ -3784,41 +4295,50 @@
       <c r="D168">
         <v>128.12779789999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D169" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C170">
-        <v>-12.479444900000001</v>
+        <v>-12.5148324</v>
       </c>
       <c r="D170">
-        <v>130.98452979999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130.96878359999999</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C171">
         <v>-14.451968300000001</v>
@@ -3826,13 +4346,16 @@
       <c r="D171">
         <v>132.2698623</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C172">
         <v>-19.645910000000001</v>
@@ -3840,27 +4363,33 @@
       <c r="D172">
         <v>134.1909565</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
-      </c>
-      <c r="C173" t="s">
-        <v>35</v>
-      </c>
-      <c r="D173" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="C173">
+        <v>-12.3333333</v>
+      </c>
+      <c r="D173">
+        <v>136.81666670000001</v>
+      </c>
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C174">
         <v>-23.698042000000001</v>
@@ -3868,69 +4397,84 @@
       <c r="D174">
         <v>133.88074710000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D176" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E176" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D177" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D178" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C179">
         <v>-12.3675944</v>
@@ -3938,27 +4482,33 @@
       <c r="D179">
         <v>130.86774689999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D180" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E180" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C181">
         <v>-12.378665099999999</v>
@@ -3966,55 +4516,67 @@
       <c r="D181">
         <v>130.9081831</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D182" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D183" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E183" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D184" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C185">
         <v>-12.4264942</v>
@@ -4022,27 +4584,33 @@
       <c r="D185">
         <v>130.8475181</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E186" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C187">
         <v>-12.6867877</v>
@@ -4050,27 +4618,33 @@
       <c r="D187">
         <v>132.2362435</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B188" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D188" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B189" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C189">
         <v>-12.452227199999999</v>
@@ -4078,13 +4652,16 @@
       <c r="D189">
         <v>131.0091482</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B190" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C190">
         <v>-12.3860487</v>
@@ -4092,27 +4669,33 @@
       <c r="D190">
         <v>131.01923489999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B191" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E191" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B192" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C192">
         <v>-12.5147979</v>
@@ -4120,27 +4703,33 @@
       <c r="D192">
         <v>130.9940148</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B193" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D193" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E193" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B194" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C194">
         <v>-12.477901299999999</v>
@@ -4148,13 +4737,16 @@
       <c r="D194">
         <v>131.0696413</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B195" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C195">
         <v>-12.5476127</v>
@@ -4162,41 +4754,50 @@
       <c r="D195">
         <v>131.14013489999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D196" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E196" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B197" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D197" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C198">
         <v>-12.518864499999999</v>
@@ -4204,13 +4805,16 @@
       <c r="D198">
         <v>131.04066309999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B199" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C199">
         <v>-12.7484716</v>
@@ -4218,69 +4822,84 @@
       <c r="D199">
         <v>130.45163289999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B200" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D200" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E200" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D201" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E201" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B202" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D202" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E202" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D203" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E203" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B204" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C204">
         <v>-14.4253863</v>
@@ -4288,27 +4907,33 @@
       <c r="D204">
         <v>132.25596849999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B205" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D205" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E205" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B206" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C206">
         <v>-15.560181699999999</v>
@@ -4316,27 +4941,33 @@
       <c r="D206">
         <v>133.7908453</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B207" t="s">
-        <v>212</v>
-      </c>
-      <c r="C207" t="s">
-        <v>35</v>
-      </c>
-      <c r="D207" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="C207">
+        <v>-14.547345699999999</v>
+      </c>
+      <c r="D207">
+        <v>132.37416400000001</v>
+      </c>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B208" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C208">
         <v>-16.068446099999999</v>
@@ -4344,13 +4975,16 @@
       <c r="D208">
         <v>136.3097128</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C209">
         <v>-19.657389599999998</v>
@@ -4358,27 +4992,33 @@
       <c r="D209">
         <v>134.18151760000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B210" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D210" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E210" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B211" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C211">
         <v>-18.917799299999999</v>
@@ -4386,13 +5026,16 @@
       <c r="D211">
         <v>136.51626200000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B212" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C212">
         <v>-23.701890299999999</v>
@@ -4400,27 +5043,33 @@
       <c r="D212">
         <v>133.8768733</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B213" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D213" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E213" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B214" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C214">
         <v>-23.588663199999999</v>
@@ -4428,13 +5077,16 @@
       <c r="D214">
         <v>131.28085770000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B215" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C215">
         <v>-23.778384500000001</v>
@@ -4442,41 +5094,50 @@
       <c r="D215">
         <v>133.8482142</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B216" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D216" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E216" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B217" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D217" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E217" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B218" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C218">
         <v>-12.190286199999999</v>
@@ -4484,27 +5145,33 @@
       <c r="D218">
         <v>136.73817829999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B219" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D219" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E219" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B220" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C220">
         <v>-13.8528647</v>
@@ -4512,69 +5179,84 @@
       <c r="D220">
         <v>136.42248710000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B221" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D221" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E221" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B222" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D222" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E222" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B223" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D223" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E223" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B224" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D224" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E224" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B225" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C225">
         <v>-28.827955299999999</v>
@@ -4582,41 +5264,50 @@
       <c r="D225">
         <v>151.8643252</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B226" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D226" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E226" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B227" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D227" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E227" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B228" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C228">
         <v>-22.8318768</v>
@@ -4624,13 +5315,16 @@
       <c r="D228">
         <v>147.6290138</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B229" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C229">
         <v>-21.422602699999999</v>
@@ -4638,41 +5332,50 @@
       <c r="D229">
         <v>149.2167555</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B230" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D230" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D231" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E231" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B232" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C232">
         <v>-21.149994800000002</v>
@@ -4680,13 +5383,16 @@
       <c r="D232">
         <v>149.1271385</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B233" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C233">
         <v>-21.048673699999998</v>
@@ -4694,13 +5400,16 @@
       <c r="D233">
         <v>148.87448879999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B234" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C234">
         <v>-21.673850399999999</v>
@@ -4708,13 +5417,16 @@
       <c r="D234">
         <v>148.46299970000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B235" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C235">
         <v>-21.353900299999999</v>
@@ -4722,13 +5434,16 @@
       <c r="D235">
         <v>148.11441930000001</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B236" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C236">
         <v>-21.961410799999999</v>
@@ -4736,13 +5451,16 @@
       <c r="D236">
         <v>147.82539499999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B237" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C237">
         <v>-22.484838499999999</v>
@@ -4750,13 +5468,16 @@
       <c r="D237">
         <v>148.28045409999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B238" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C238">
         <v>-22.813962700000001</v>
@@ -4764,13 +5485,16 @@
       <c r="D238">
         <v>148.69837150000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C239">
         <v>-21.030659499999999</v>
@@ -4778,13 +5502,16 @@
       <c r="D239">
         <v>149.1443634</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B240" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C240">
         <v>-21.162933299999999</v>
@@ -4792,13 +5519,16 @@
       <c r="D240">
         <v>149.05563839999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B241" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C241">
         <v>-21.146331100000001</v>
@@ -4806,13 +5536,16 @@
       <c r="D241">
         <v>148.9512029</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B242" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C242">
         <v>-21.2242265</v>
@@ -4820,69 +5553,84 @@
       <c r="D242">
         <v>148.8382733</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B243" t="s">
-        <v>248</v>
-      </c>
-      <c r="C243">
-        <v>-21.123457899999998</v>
-      </c>
-      <c r="D243">
-        <v>148.57723899999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="C243" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" t="s">
+        <v>37</v>
+      </c>
+      <c r="E243" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B244" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D244" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E244" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B245" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C245" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D245" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E245" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B246" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D246" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C247">
         <v>-20.404987800000001</v>
@@ -4890,27 +5638,33 @@
       <c r="D247">
         <v>148.58072129999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C248" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D248" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E248" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C249">
         <v>-20.2674989</v>
@@ -4918,13 +5672,16 @@
       <c r="D249">
         <v>148.71691630000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C250">
         <v>-20.346672699999999</v>
@@ -4932,13 +5689,16 @@
       <c r="D250">
         <v>148.952403</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C251">
         <v>-20.553066099999999</v>
@@ -4946,13 +5706,16 @@
       <c r="D251">
         <v>147.84436289999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B252" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C252">
         <v>-20.204170399999999</v>
@@ -4960,13 +5723,16 @@
       <c r="D252">
         <v>147.91625550000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B253" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C253">
         <v>-19.924562399999999</v>
@@ -4974,13 +5740,16 @@
       <c r="D253">
         <v>147.3722545</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B254" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C254">
         <v>-19.920036400000001</v>
@@ -4988,27 +5757,33 @@
       <c r="D254">
         <v>147.14642449999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B255" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C255" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D255" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E255" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C256">
         <v>-19.570285299999998</v>
@@ -5016,13 +5791,16 @@
       <c r="D256">
         <v>147.13990989999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C257">
         <v>-19.356819999999999</v>
@@ -5030,13 +5808,16 @@
       <c r="D257">
         <v>147.0379125</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B258" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C258">
         <v>-19.360968</v>
@@ -5044,13 +5825,16 @@
       <c r="D258">
         <v>146.81986910000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B259" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C259">
         <v>-19.287364700000001</v>
@@ -5058,27 +5842,33 @@
       <c r="D259">
         <v>146.79176820000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B260" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C260" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D260" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E260" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B261" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C261">
         <v>-19.2878252</v>
@@ -5086,13 +5876,16 @@
       <c r="D261">
         <v>146.7552341</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B262" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C262">
         <v>-19.388445600000001</v>
@@ -5100,13 +5893,16 @@
       <c r="D262">
         <v>146.72447690000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C263">
         <v>-21.1851758</v>
@@ -5114,13 +5910,16 @@
       <c r="D263">
         <v>145.13758340000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B264" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C264">
         <v>-19.3321474</v>
@@ -5128,13 +5927,16 @@
       <c r="D264">
         <v>146.60607350000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B265" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C265">
         <v>-19.2049974</v>
@@ -5142,13 +5944,16 @@
       <c r="D265">
         <v>146.5168094</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B266" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C266">
         <v>-19.1547801</v>
@@ -5156,13 +5961,16 @@
       <c r="D266">
         <v>146.8451379</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B267" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C267">
         <v>-20.0762578</v>
@@ -5170,13 +5978,16 @@
       <c r="D267">
         <v>146.2585756</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B268" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C268">
         <v>-20.846473799999998</v>
@@ -5184,13 +5995,16 @@
       <c r="D268">
         <v>144.19973529999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C269">
         <v>-20.031224000000002</v>
@@ -5198,27 +6012,33 @@
       <c r="D269">
         <v>143.04589300000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B270" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C270" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D270" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E270" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B271" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C271">
         <v>-19.985330600000001</v>
@@ -5226,13 +6046,16 @@
       <c r="D271">
         <v>140.3481835</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B272" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C272">
         <v>-20.690568800000001</v>
@@ -5240,41 +6063,50 @@
       <c r="D272">
         <v>138.3988186</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B273" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D273" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E273" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B274" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D274" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E274" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B275" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C275">
         <v>-18.3022077</v>
@@ -5282,27 +6114,33 @@
       <c r="D275">
         <v>146.15887119999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B276" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C276" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D276" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E276" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B277" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C277">
         <v>-17.8666147</v>
@@ -5310,13 +6148,16 @@
       <c r="D277">
         <v>146.09721859999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B278" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C278">
         <v>-17.983312999999999</v>
@@ -5324,13 +6165,16 @@
       <c r="D278">
         <v>145.80231180000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B279" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C279">
         <v>-17.8000401</v>
@@ -5338,41 +6182,50 @@
       <c r="D279">
         <v>146.00009829999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B280" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C280" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D280" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E280" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B281" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C281" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D281" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E281" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B282" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C282">
         <v>-17.583319100000001</v>
@@ -5380,27 +6233,33 @@
       <c r="D282">
         <v>146.0702738</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B283" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C283" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D283" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E283" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B284" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C284">
         <v>-17.5226829</v>
@@ -5408,13 +6267,16 @@
       <c r="D284">
         <v>146.02782579999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B285" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C285">
         <v>-17.340739899999999</v>
@@ -5422,13 +6284,16 @@
       <c r="D285">
         <v>145.92757589999999</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B286" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C286">
         <v>-17.0923129</v>
@@ -5436,13 +6301,16 @@
       <c r="D286">
         <v>145.7847472</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B287" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C287">
         <v>-16.9678678</v>
@@ -5450,13 +6318,16 @@
       <c r="D287">
         <v>145.74646329999999</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B288" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C288">
         <v>-17.0187557</v>
@@ -5464,13 +6335,16 @@
       <c r="D288">
         <v>145.74484960000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B289" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C289">
         <v>-16.918648000000001</v>
@@ -5478,13 +6352,16 @@
       <c r="D289">
         <v>145.7405497</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B290" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C290">
         <v>-18.547146699999999</v>
@@ -5492,13 +6369,16 @@
       <c r="D290">
         <v>143.2244216</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B291" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C291">
         <v>-18.017841799999999</v>
@@ -5506,13 +6386,16 @@
       <c r="D291">
         <v>144.9611836</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B292" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C292">
         <v>-16.244647799999999</v>
@@ -5520,13 +6403,16 @@
       <c r="D292">
         <v>145.27012350000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B293" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C293">
         <v>-12.631871800000001</v>
@@ -5534,13 +6420,16 @@
       <c r="D293">
         <v>141.87077590000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B294" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C294">
         <v>-10.5799693</v>
@@ -5548,13 +6437,16 @@
       <c r="D294">
         <v>142.21936969999999</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B295" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C295">
         <v>-10.8500975</v>
@@ -5562,13 +6454,16 @@
       <c r="D295">
         <v>142.36904799999999</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B296" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C296">
         <v>-16.525709800000001</v>
@@ -5576,13 +6471,16 @@
       <c r="D296">
         <v>145.4652682</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B297" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C297">
         <v>-16.8314187</v>
@@ -5590,13 +6488,16 @@
       <c r="D297">
         <v>145.69085960000001</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B298" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C298">
         <v>-16.7705777</v>
@@ -5604,13 +6505,16 @@
       <c r="D298">
         <v>145.67176269999999</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B299" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C299">
         <v>-16.994112900000001</v>
@@ -5618,13 +6522,16 @@
       <c r="D299">
         <v>145.35859719999999</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B300" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C300">
         <v>-16.8167422</v>
@@ -5632,13 +6539,16 @@
       <c r="D300">
         <v>145.63333170000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B301" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C301">
         <v>-17.203174400000002</v>
@@ -5646,13 +6556,16 @@
       <c r="D301">
         <v>145.45170709999999</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B302" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C302">
         <v>-17.2661339</v>
@@ -5660,13 +6573,16 @@
       <c r="D302">
         <v>145.48584930000001</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B303" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C303">
         <v>-17.2711364</v>
@@ -5674,13 +6590,16 @@
       <c r="D303">
         <v>145.58307389999999</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B304" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C304">
         <v>-17.353583799999999</v>
@@ -5688,13 +6607,16 @@
       <c r="D304">
         <v>145.59362060000001</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B305" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C305">
         <v>-17.512140200000001</v>
@@ -5702,13 +6624,16 @@
       <c r="D305">
         <v>145.6023644</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B306" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C306">
         <v>-17.431858099999999</v>
@@ -5716,13 +6641,16 @@
       <c r="D306">
         <v>145.09344899999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B307" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C307">
         <v>-17.5839985</v>
@@ -5730,13 +6658,16 @@
       <c r="D307">
         <v>145.4471613</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B308" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C308">
         <v>-17.512358299999999</v>
@@ -5744,13 +6675,16 @@
       <c r="D308">
         <v>141.17945460000001</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B309" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C309">
         <v>-17.491239100000001</v>
@@ -5758,13 +6692,16 @@
       <c r="D309">
         <v>140.8768541</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B310" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C310">
         <v>-15.2903067</v>
@@ -5772,13 +6709,16 @@
       <c r="D310">
         <v>143.39060739999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B311" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C311">
         <v>-15.9452239</v>
@@ -5786,13 +6726,16 @@
       <c r="D311">
         <v>145.31869889999999</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B312" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C312">
         <v>-21.916267099999999</v>
@@ -5800,55 +6743,67 @@
       <c r="D312">
         <v>115.09404499999999</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B313" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C313" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D313" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E313" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B314" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C314" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D314" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E314" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B315" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C315" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D315" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E315" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B316" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C316">
         <v>-20.967770999999999</v>
@@ -5856,27 +6811,33 @@
       <c r="D316">
         <v>117.0794082</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B317" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C317" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D317" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E317" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B318" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C318">
         <v>-20.750550700000002</v>
@@ -5884,27 +6845,33 @@
       <c r="D318">
         <v>117.19705570000001</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B319" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C319" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D319" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E319" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B320" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C320">
         <v>-20.878014100000001</v>
@@ -5912,13 +6879,16 @@
       <c r="D320">
         <v>118.5797981</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B321" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C321">
         <v>-20.2571534</v>
@@ -5926,27 +6896,33 @@
       <c r="D321">
         <v>119.13906420000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B322" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C322" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D322" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E322" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B323" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C323">
         <v>-18.983338400000001</v>
@@ -5954,13 +6930,16 @@
       <c r="D323">
         <v>122.7181375</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B324" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C324">
         <v>-17.952164400000001</v>
@@ -5968,13 +6947,16 @@
       <c r="D324">
         <v>122.2114952</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B325" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C325">
         <v>-17.0965983</v>
@@ -5982,55 +6964,67 @@
       <c r="D325">
         <v>125.56578620000001</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B326" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C326" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D326" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E326" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B327" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C327" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D327" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E327" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B328" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C328" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D328" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E328" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B329" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C329">
         <v>-16.6687048</v>
@@ -6038,13 +7032,16 @@
       <c r="D329">
         <v>127.6386622</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B330" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C330">
         <v>-22.723526499999998</v>
@@ -6052,13 +7049,16 @@
       <c r="D330">
         <v>117.5495846</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B331" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C331">
         <v>-22.9798905</v>
@@ -6066,83 +7066,101 @@
       <c r="D331">
         <v>119.7889248</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B332" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C332" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D332" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E332" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B333" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C333" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D333" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E333" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B334" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C334" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D334" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E334" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B335" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C335" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D335" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E335" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B336" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C336" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D336" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E336" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B337" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C337">
         <v>-17.826415799999999</v>
@@ -6150,13 +7168,16 @@
       <c r="D337">
         <v>124.7740793</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B338" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C338">
         <v>-18.819863099999999</v>
@@ -6164,13 +7185,16 @@
       <c r="D338">
         <v>127.9784585</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B339" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C339">
         <v>-10.4858403</v>
@@ -6178,19 +7202,25 @@
       <c r="D339">
         <v>105.62952300000001</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B340" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C340" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D340" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="E340" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Pathology_locations_with_lat_long.xlsx
+++ b/Pathology_locations_with_lat_long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoac\repos\coordinates-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A24B4-BD6B-409D-ABFD-B488CBB09CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C455AAE-FD42-4812-9032-FDC8BFB8532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="349">
   <si>
     <t>Type of location</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Coconut Island Health Centre</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -1045,12 +1042,6 @@
     <t>6754</t>
   </si>
   <si>
-    <t>6758</t>
-  </si>
-  <si>
-    <t>6760</t>
-  </si>
-  <si>
     <t>6761</t>
   </si>
   <si>
@@ -1067,13 +1058,42 @@
   </si>
   <si>
     <t>6799</t>
+  </si>
+  <si>
+    <t>Cell Formatting Rules</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> API Generated</t>
+    </r>
+  </si>
+  <si>
+    <t>Coordinates Not Found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,15 +1104,57 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1122,16 +1184,176 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1429,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C205" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,26 +1663,32 @@
     <col min="3" max="3" width="28.5546875" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1476,8 +1704,12 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1493,8 +1725,10 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="10"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1510,8 +1744,12 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1527,8 +1765,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="10"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1544,8 +1784,11 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1647,7 +1890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1664,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1960,14 +2203,14 @@
       <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>-10.0499385037572</v>
+      </c>
+      <c r="D31">
+        <v>143.066535786244</v>
+      </c>
+      <c r="E31" t="s">
         <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1975,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>-13.945095999999999</v>
@@ -1992,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>-20.546040699999999</v>
@@ -2009,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>-20.546040699999999</v>
@@ -2026,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>-15.478180099999999</v>
@@ -2043,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>-16.202349600000002</v>
@@ -2060,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>-16.202349600000002</v>
@@ -2077,16 +2320,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>-18.211143345448299</v>
+      </c>
+      <c r="D38">
+        <v>142.24030235935399</v>
+      </c>
+      <c r="E38" t="s">
         <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2094,16 +2337,16 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>-18.211059211102899</v>
+      </c>
+      <c r="D39">
+        <v>142.240781955046</v>
+      </c>
+      <c r="E39" t="s">
         <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2111,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>-18.211212100000001</v>
@@ -2128,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>-21.693957600000001</v>
@@ -2145,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>-21.693957600000001</v>
@@ -2162,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>-21.693957600000001</v>
@@ -2179,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>-9.5984173999999989</v>
@@ -2196,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>-17.146797100000001</v>
@@ -2213,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>-17.146797100000001</v>
@@ -2230,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>-17.9425016</v>
@@ -2247,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>-17.9425016</v>
@@ -2264,7 +2507,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>-9.3778629000000002</v>
@@ -2281,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>-22.582658500000001</v>
@@ -2298,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>-23.371973199999999</v>
@@ -2315,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <v>-18.5881197</v>
@@ -2332,16 +2575,16 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>-18.2922273</v>
+      </c>
+      <c r="D53">
+        <v>143.54721850000001</v>
+      </c>
+      <c r="E53" t="s">
         <v>37</v>
-      </c>
-      <c r="D53" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2349,16 +2592,16 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>-18.2922273</v>
+      </c>
+      <c r="D54">
+        <v>143.54721850000001</v>
+      </c>
+      <c r="E54" t="s">
         <v>37</v>
-      </c>
-      <c r="D54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2366,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>-18.2922273</v>
@@ -2383,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56">
         <v>-20.7308184</v>
@@ -2400,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <v>-17.087480899999999</v>
@@ -2417,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>-16.931371899999998</v>
@@ -2434,7 +2677,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59">
         <v>-17.3802731</v>
@@ -2451,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>-19.6615325</v>
@@ -2468,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61">
         <v>-15.294112699999999</v>
@@ -2485,7 +2728,7 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>-10.594532299999999</v>
@@ -2502,7 +2745,7 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>-20.843001600000001</v>
@@ -2519,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <v>-20.843001600000001</v>
@@ -2536,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65">
         <v>-18.647176000000002</v>
@@ -2553,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66">
         <v>-18.6522851</v>
@@ -2570,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67">
         <v>-17.5192312</v>
@@ -2587,7 +2830,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68">
         <v>-18.732885899999999</v>
@@ -2604,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69">
         <v>-18.125764400000001</v>
@@ -2621,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <v>-20.6561907</v>
@@ -2638,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71">
         <v>-20.6561907</v>
@@ -2655,7 +2898,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72">
         <v>-17.484900100000001</v>
@@ -2672,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73">
         <v>-17.484900100000001</v>
@@ -2689,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74">
         <v>-19.3041828</v>
@@ -2706,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75">
         <v>-15.4757452</v>
@@ -2723,7 +2966,7 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>-10.2348172</v>
@@ -2740,16 +2983,16 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
+        <v>-20.984825549547899</v>
+      </c>
+      <c r="D77">
+        <v>137.84824793663299</v>
+      </c>
+      <c r="E77" t="s">
         <v>37</v>
-      </c>
-      <c r="D77" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2757,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78">
         <v>-15.559380600000001</v>
@@ -2774,7 +3017,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>-12.786103300000001</v>
@@ -2791,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80">
         <v>-17.1124458</v>
@@ -2808,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81">
         <v>-17.1124458</v>
@@ -2825,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82">
         <v>-17.1124458</v>
@@ -2842,7 +3085,7 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <v>-17.1124458</v>
@@ -2859,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84">
         <v>-17.1124458</v>
@@ -2876,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85">
         <v>-17.1124458</v>
@@ -2893,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86">
         <v>-17.1124458</v>
@@ -2910,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87">
         <v>-17.1124458</v>
@@ -2927,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88">
         <v>-17.1124458</v>
@@ -2944,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89">
         <v>-17.1124458</v>
@@ -2961,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90">
         <v>-17.1124458</v>
@@ -2978,7 +3221,7 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91">
         <v>-17.1124458</v>
@@ -2995,7 +3238,7 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92">
         <v>-17.1124458</v>
@@ -3012,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93">
         <v>-17.1124458</v>
@@ -3029,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94">
         <v>-17.1124458</v>
@@ -3046,7 +3289,7 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95">
         <v>-9.954037099999999</v>
@@ -3063,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96">
         <v>-21.146536600000001</v>
@@ -3080,7 +3323,7 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97">
         <v>-21.139608299999999</v>
@@ -3097,7 +3340,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98">
         <v>-21.146536600000001</v>
@@ -3114,7 +3357,7 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99">
         <v>-21.1449821</v>
@@ -3131,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100">
         <v>-19.157708299999999</v>
@@ -3148,7 +3391,7 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101">
         <v>-19.157708299999999</v>
@@ -3165,7 +3408,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C102">
         <v>-12.684514399999999</v>
@@ -3182,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103">
         <v>-17.354042700000001</v>
@@ -3199,7 +3442,7 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104">
         <v>-17.354042700000001</v>
@@ -3216,7 +3459,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C105">
         <v>-12.016779400000001</v>
@@ -3233,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106">
         <v>-16.987493400000002</v>
@@ -3250,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107">
         <v>-16.987493400000002</v>
@@ -3267,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108">
         <v>-17.514482000000001</v>
@@ -3284,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109">
         <v>-22.002141300000002</v>
@@ -3301,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110">
         <v>-16.664729399999999</v>
@@ -3318,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111">
         <v>-16.464094200000002</v>
@@ -3335,7 +3578,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C112">
         <v>-16.464074100000001</v>
@@ -3352,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113">
         <v>-16.464074100000001</v>
@@ -3369,7 +3612,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114">
         <v>-17.678895900000001</v>
@@ -3386,7 +3629,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C115">
         <v>-17.678895900000001</v>
@@ -3403,7 +3646,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C116">
         <v>-20.730654999999999</v>
@@ -3420,7 +3663,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117">
         <v>-20.727022999999999</v>
@@ -3437,7 +3680,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C118">
         <v>-20.727022999999999</v>
@@ -3454,7 +3697,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119">
         <v>-35.654750700000001</v>
@@ -3471,7 +3714,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C120">
         <v>-12.684514399999999</v>
@@ -3488,7 +3731,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C121">
         <v>-17.672514100000001</v>
@@ -3505,7 +3748,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C122">
         <v>-19.252926800000001</v>
@@ -3522,7 +3765,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C123">
         <v>-18.732885899999999</v>
@@ -3539,7 +3782,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C124">
         <v>-19.304270500000001</v>
@@ -3556,7 +3799,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C125">
         <v>-14.8998679</v>
@@ -3573,7 +3816,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C126">
         <v>-20.400058699999999</v>
@@ -3590,7 +3833,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C127">
         <v>-17.607434999999999</v>
@@ -3607,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128">
         <v>-17.607434999999999</v>
@@ -3624,16 +3867,16 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
-      </c>
-      <c r="C129" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129">
+        <v>-20.040460857543</v>
+      </c>
+      <c r="D129">
+        <v>143.14198908705799</v>
+      </c>
+      <c r="E129" t="s">
         <v>37</v>
-      </c>
-      <c r="D129" t="s">
-        <v>37</v>
-      </c>
-      <c r="E129" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3641,7 +3884,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C130">
         <v>-9.3778629000000002</v>
@@ -3658,7 +3901,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C131">
         <v>-21.422433999999999</v>
@@ -3675,16 +3918,16 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
-      </c>
-      <c r="C132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132">
+        <v>-10.197432547999201</v>
+      </c>
+      <c r="D132">
+        <v>142.50728571414399</v>
+      </c>
+      <c r="E132" t="s">
         <v>37</v>
-      </c>
-      <c r="D132" t="s">
-        <v>37</v>
-      </c>
-      <c r="E132" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3692,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C133">
         <v>-9.7521127000000014</v>
@@ -3709,7 +3952,7 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134">
         <v>-10.588217200000001</v>
@@ -3726,7 +3969,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C135">
         <v>-19.320556499999999</v>
@@ -3743,7 +3986,7 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C136">
         <v>-19.252970900000001</v>
@@ -3760,7 +4003,7 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C137">
         <v>-19.260715000000001</v>
@@ -3777,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C138">
         <v>-17.927825299999999</v>
@@ -3794,7 +4037,7 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139">
         <v>-11.6499191</v>
@@ -3811,7 +4054,7 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C140">
         <v>-12.6219322</v>
@@ -3828,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C141">
         <v>-12.6409298</v>
@@ -3845,7 +4088,7 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C142">
         <v>-15.9487638</v>
@@ -3862,7 +4105,7 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C143">
         <v>-15.9487638</v>
@@ -3879,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C144">
         <v>-9.7521127000000014</v>
@@ -3896,7 +4139,7 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C145">
         <v>-16.931371899999998</v>
@@ -3913,7 +4156,7 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C146">
         <v>-16.931597199999999</v>
@@ -3930,7 +4173,7 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147">
         <v>-9.7521127000000014</v>
@@ -3947,7 +4190,7 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C148">
         <v>-17.960511799999999</v>
@@ -3964,7 +4207,7 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C149">
         <v>-17.958024900000002</v>
@@ -3981,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C150">
         <v>-10.4252798</v>
@@ -3998,7 +4241,7 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C151">
         <v>-17.307305100000001</v>
@@ -4015,7 +4258,7 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C152">
         <v>-18.191109099999998</v>
@@ -4032,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C153">
         <v>-18.2253978</v>
@@ -4049,7 +4292,7 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C154">
         <v>-20.413318400000001</v>
@@ -4066,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C155">
         <v>-20.413615</v>
@@ -4083,7 +4326,7 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C156">
         <v>-20.732529100000001</v>
@@ -4100,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C157">
         <v>-15.7756344</v>
@@ -4117,7 +4360,7 @@
         <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C158">
         <v>-21.173511999999999</v>
@@ -4134,7 +4377,7 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C159">
         <v>-23.354798599999999</v>
@@ -4151,7 +4394,7 @@
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C160">
         <v>-20.746992899999999</v>
@@ -4168,7 +4411,7 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C161">
         <v>-21.8868276</v>
@@ -4185,7 +4428,7 @@
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C162">
         <v>-21.643216800000001</v>
@@ -4202,7 +4445,7 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C163">
         <v>-23.202998999999998</v>
@@ -4219,7 +4462,7 @@
         <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C164">
         <v>-20.776335599999999</v>
@@ -4236,7 +4479,7 @@
         <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C165">
         <v>-20.721211100000001</v>
@@ -4253,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C166">
         <v>-22.695447999999999</v>
@@ -4270,7 +4513,7 @@
         <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C167">
         <v>-17.354191799999999</v>
@@ -4287,7 +4530,7 @@
         <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C168">
         <v>-15.4780187</v>
@@ -4304,16 +4547,16 @@
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>176</v>
-      </c>
-      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+      <c r="C169">
+        <v>-12.353205385485399</v>
+      </c>
+      <c r="D169">
+        <v>130.88348319956199</v>
+      </c>
+      <c r="E169" t="s">
         <v>37</v>
-      </c>
-      <c r="D169" t="s">
-        <v>37</v>
-      </c>
-      <c r="E169" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -4321,7 +4564,7 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C170">
         <v>-12.5148324</v>
@@ -4338,7 +4581,7 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C171">
         <v>-14.451968300000001</v>
@@ -4355,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C172">
         <v>-19.645910000000001</v>
@@ -4372,7 +4615,7 @@
         <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C173">
         <v>-12.3333333</v>
@@ -4389,7 +4632,7 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C174">
         <v>-23.698042000000001</v>
@@ -4403,78 +4646,78 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" t="s">
         <v>182</v>
       </c>
-      <c r="B175" t="s">
-        <v>183</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="C175">
+        <v>-12.4594356758407</v>
+      </c>
+      <c r="D175">
+        <v>130.84174772527601</v>
+      </c>
+      <c r="E175" t="s">
         <v>37</v>
-      </c>
-      <c r="D175" t="s">
-        <v>37</v>
-      </c>
-      <c r="E175" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
-      </c>
-      <c r="C176" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176">
+        <v>-12.4594356758407</v>
+      </c>
+      <c r="D176">
+        <v>130.84174772527601</v>
+      </c>
+      <c r="E176" t="s">
         <v>37</v>
-      </c>
-      <c r="D176" t="s">
-        <v>37</v>
-      </c>
-      <c r="E176" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
-      </c>
-      <c r="C177" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177">
+        <v>-12.433947219613501</v>
+      </c>
+      <c r="D177">
+        <v>130.74293419085399</v>
+      </c>
+      <c r="E177" t="s">
         <v>37</v>
-      </c>
-      <c r="D177" t="s">
-        <v>37</v>
-      </c>
-      <c r="E177" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
-      </c>
-      <c r="C178" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178">
+        <v>-12.432339861633499</v>
+      </c>
+      <c r="D178">
+        <v>130.84351106730099</v>
+      </c>
+      <c r="E178" t="s">
         <v>37</v>
-      </c>
-      <c r="D178" t="s">
-        <v>37</v>
-      </c>
-      <c r="E178" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C179">
         <v>-12.3675944</v>
@@ -4488,33 +4731,33 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
-      </c>
-      <c r="C180" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180">
+        <v>-12.3727816653884</v>
+      </c>
+      <c r="D180">
+        <v>130.883806601239</v>
+      </c>
+      <c r="E180" t="s">
         <v>37</v>
-      </c>
-      <c r="D180" t="s">
-        <v>37</v>
-      </c>
-      <c r="E180" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C181">
-        <v>-12.378665099999999</v>
+        <v>-12.400543025677701</v>
       </c>
       <c r="D181">
-        <v>130.9081831</v>
+        <v>130.91601700520701</v>
       </c>
       <c r="E181" t="s">
         <v>7</v>
@@ -4522,61 +4765,61 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
-      </c>
-      <c r="C182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182">
+        <v>-12.400543025677701</v>
+      </c>
+      <c r="D182">
+        <v>130.91601700520701</v>
+      </c>
+      <c r="E182" t="s">
         <v>37</v>
-      </c>
-      <c r="D182" t="s">
-        <v>37</v>
-      </c>
-      <c r="E182" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
-      </c>
-      <c r="C183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183">
+        <v>-12.3675944</v>
+      </c>
+      <c r="D183">
+        <v>130.86774689999999</v>
+      </c>
+      <c r="E183" t="s">
         <v>37</v>
-      </c>
-      <c r="D183" t="s">
-        <v>37</v>
-      </c>
-      <c r="E183" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
-      </c>
-      <c r="C184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184">
+        <v>-12.371583811206699</v>
+      </c>
+      <c r="D184">
+        <v>130.86890380213299</v>
+      </c>
+      <c r="E184" t="s">
         <v>37</v>
-      </c>
-      <c r="D184" t="s">
-        <v>37</v>
-      </c>
-      <c r="E184" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C185">
         <v>-12.4264942</v>
@@ -4590,33 +4833,33 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>194</v>
-      </c>
-      <c r="C186" t="s">
-        <v>37</v>
-      </c>
-      <c r="D186" t="s">
-        <v>37</v>
+        <v>193</v>
+      </c>
+      <c r="C186">
+        <v>-12.4264942</v>
+      </c>
+      <c r="D186">
+        <v>130.8475181</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C187">
-        <v>-12.6867877</v>
+        <v>-12.4264942</v>
       </c>
       <c r="D187">
-        <v>132.2362435</v>
+        <v>130.8475181</v>
       </c>
       <c r="E187" t="s">
         <v>7</v>
@@ -4624,27 +4867,27 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
-      </c>
-      <c r="C188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188">
+        <v>-12.422525023207999</v>
+      </c>
+      <c r="D188">
+        <v>130.92672528141401</v>
+      </c>
+      <c r="E188" t="s">
         <v>37</v>
-      </c>
-      <c r="D188" t="s">
-        <v>37</v>
-      </c>
-      <c r="E188" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B189" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C189">
         <v>-12.452227199999999</v>
@@ -4658,10 +4901,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B190" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C190">
         <v>-12.3860487</v>
@@ -4675,27 +4918,27 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B191" t="s">
-        <v>199</v>
-      </c>
-      <c r="C191" t="s">
+        <v>198</v>
+      </c>
+      <c r="C191">
+        <v>-12.4785214820739</v>
+      </c>
+      <c r="D191">
+        <v>130.984340158447</v>
+      </c>
+      <c r="E191" t="s">
         <v>37</v>
-      </c>
-      <c r="D191" t="s">
-        <v>37</v>
-      </c>
-      <c r="E191" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C192">
         <v>-12.5147979</v>
@@ -4709,27 +4952,27 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
-      </c>
-      <c r="C193" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193">
+        <v>-12.5428481911835</v>
+      </c>
+      <c r="D193">
+        <v>131.02554675895101</v>
+      </c>
+      <c r="E193" t="s">
         <v>37</v>
-      </c>
-      <c r="D193" t="s">
-        <v>37</v>
-      </c>
-      <c r="E193" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C194">
         <v>-12.477901299999999</v>
@@ -4743,10 +4986,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B195" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C195">
         <v>-12.5476127</v>
@@ -4760,44 +5003,44 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B196" t="s">
-        <v>204</v>
-      </c>
-      <c r="C196" t="s">
+        <v>203</v>
+      </c>
+      <c r="C196">
+        <v>-12.8125868443525</v>
+      </c>
+      <c r="D196">
+        <v>131.17268139008701</v>
+      </c>
+      <c r="E196" t="s">
         <v>37</v>
-      </c>
-      <c r="D196" t="s">
-        <v>37</v>
-      </c>
-      <c r="E196" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
-      </c>
-      <c r="C197" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197">
+        <v>-12.7233798756893</v>
+      </c>
+      <c r="D197">
+        <v>131.00739585600601</v>
+      </c>
+      <c r="E197" t="s">
         <v>37</v>
-      </c>
-      <c r="D197" t="s">
-        <v>37</v>
-      </c>
-      <c r="E197" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C198">
         <v>-12.518864499999999</v>
@@ -4811,10 +5054,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C199">
         <v>-12.7484716</v>
@@ -4828,78 +5071,78 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
-      </c>
-      <c r="C200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200">
+        <v>-12.802793805619901</v>
+      </c>
+      <c r="D200">
+        <v>130.952922139094</v>
+      </c>
+      <c r="E200" t="s">
         <v>37</v>
-      </c>
-      <c r="D200" t="s">
-        <v>37</v>
-      </c>
-      <c r="E200" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
-      </c>
-      <c r="C201" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201">
+        <v>-13.044105121728901</v>
+      </c>
+      <c r="D201">
+        <v>131.02621611567301</v>
+      </c>
+      <c r="E201" t="s">
         <v>37</v>
-      </c>
-      <c r="D201" t="s">
-        <v>37</v>
-      </c>
-      <c r="E201" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B202" t="s">
-        <v>210</v>
-      </c>
-      <c r="C202" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202">
+        <v>-13.2394988880255</v>
+      </c>
+      <c r="D202">
+        <v>131.102192482292</v>
+      </c>
+      <c r="E202" t="s">
         <v>37</v>
-      </c>
-      <c r="D202" t="s">
-        <v>37</v>
-      </c>
-      <c r="E202" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
-      </c>
-      <c r="C203" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203">
+        <v>-13.8232050578103</v>
+      </c>
+      <c r="D203">
+        <v>131.832366226076</v>
+      </c>
+      <c r="E203" t="s">
         <v>37</v>
-      </c>
-      <c r="D203" t="s">
-        <v>37</v>
-      </c>
-      <c r="E203" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B204" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C204">
         <v>-14.4253863</v>
@@ -4913,27 +5156,27 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
-      </c>
-      <c r="C205" t="s">
+        <v>212</v>
+      </c>
+      <c r="C205">
+        <v>-14.4519302899013</v>
+      </c>
+      <c r="D205">
+        <v>132.26860758751101</v>
+      </c>
+      <c r="E205" t="s">
         <v>37</v>
-      </c>
-      <c r="D205" t="s">
-        <v>37</v>
-      </c>
-      <c r="E205" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C206">
         <v>-15.560181699999999</v>
@@ -4947,10 +5190,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C207">
         <v>-14.547345699999999</v>
@@ -4964,10 +5207,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B208" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C208">
         <v>-16.068446099999999</v>
@@ -4981,10 +5224,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C209">
         <v>-19.657389599999998</v>
@@ -4998,27 +5241,27 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
-      </c>
-      <c r="C210" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210">
+        <v>-19.645963660990699</v>
+      </c>
+      <c r="D210">
+        <v>134.19219849931901</v>
+      </c>
+      <c r="E210" t="s">
         <v>37</v>
-      </c>
-      <c r="D210" t="s">
-        <v>37</v>
-      </c>
-      <c r="E210" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B211" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C211">
         <v>-18.917799299999999</v>
@@ -5032,10 +5275,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B212" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C212">
         <v>-23.701890299999999</v>
@@ -5049,27 +5292,27 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
-      </c>
-      <c r="C213" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213">
+        <v>-23.697773532582701</v>
+      </c>
+      <c r="D213">
+        <v>133.88141658477701</v>
+      </c>
+      <c r="E213" t="s">
         <v>37</v>
-      </c>
-      <c r="D213" t="s">
-        <v>37</v>
-      </c>
-      <c r="E213" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B214" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C214">
         <v>-23.588663199999999</v>
@@ -5083,10 +5326,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B215" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C215">
         <v>-23.778384500000001</v>
@@ -5100,44 +5343,44 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B216" t="s">
-        <v>224</v>
-      </c>
-      <c r="C216" t="s">
+        <v>223</v>
+      </c>
+      <c r="C216">
+        <v>-23.653278849320898</v>
+      </c>
+      <c r="D216">
+        <v>133.86325868743</v>
+      </c>
+      <c r="E216" t="s">
         <v>37</v>
-      </c>
-      <c r="D216" t="s">
-        <v>37</v>
-      </c>
-      <c r="E216" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B217" t="s">
-        <v>225</v>
-      </c>
-      <c r="C217" t="s">
+        <v>224</v>
+      </c>
+      <c r="C217">
+        <v>-23.711134330354199</v>
+      </c>
+      <c r="D217">
+        <v>133.852230429597</v>
+      </c>
+      <c r="E217" t="s">
         <v>37</v>
-      </c>
-      <c r="D217" t="s">
-        <v>37</v>
-      </c>
-      <c r="E217" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C218">
         <v>-12.190286199999999</v>
@@ -5151,27 +5394,27 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B219" t="s">
-        <v>227</v>
-      </c>
-      <c r="C219" t="s">
+        <v>226</v>
+      </c>
+      <c r="C219">
+        <v>-12.183270831001799</v>
+      </c>
+      <c r="D219">
+        <v>136.78957831827</v>
+      </c>
+      <c r="E219" t="s">
         <v>37</v>
-      </c>
-      <c r="D219" t="s">
-        <v>37</v>
-      </c>
-      <c r="E219" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B220" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C220">
         <v>-13.8528647</v>
@@ -5185,78 +5428,78 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B221" t="s">
-        <v>229</v>
-      </c>
-      <c r="C221" t="s">
+        <v>228</v>
+      </c>
+      <c r="C221">
+        <v>-12.6744147095219</v>
+      </c>
+      <c r="D221">
+        <v>132.833000650907</v>
+      </c>
+      <c r="E221" t="s">
         <v>37</v>
-      </c>
-      <c r="D221" t="s">
-        <v>37</v>
-      </c>
-      <c r="E221" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B222" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C222" t="s">
+        <v>348</v>
+      </c>
+      <c r="D222" t="s">
+        <v>348</v>
+      </c>
+      <c r="E222" t="s">
         <v>37</v>
-      </c>
-      <c r="D222" t="s">
-        <v>37</v>
-      </c>
-      <c r="E222" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B223" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C223" t="s">
+        <v>348</v>
+      </c>
+      <c r="D223" t="s">
+        <v>348</v>
+      </c>
+      <c r="E223" t="s">
         <v>37</v>
-      </c>
-      <c r="D223" t="s">
-        <v>37</v>
-      </c>
-      <c r="E223" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C224" t="s">
+        <v>348</v>
+      </c>
+      <c r="D224" t="s">
+        <v>348</v>
+      </c>
+      <c r="E224" t="s">
         <v>37</v>
-      </c>
-      <c r="D224" t="s">
-        <v>37</v>
-      </c>
-      <c r="E224" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C225">
         <v>-28.827955299999999</v>
@@ -5270,44 +5513,44 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B226" t="s">
-        <v>234</v>
-      </c>
-      <c r="C226" t="s">
+        <v>233</v>
+      </c>
+      <c r="C226">
+        <v>-22.642623873272001</v>
+      </c>
+      <c r="D226">
+        <v>149.25999248157299</v>
+      </c>
+      <c r="E226" t="s">
         <v>37</v>
-      </c>
-      <c r="D226" t="s">
-        <v>37</v>
-      </c>
-      <c r="E226" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
-      </c>
-      <c r="C227" t="s">
+        <v>234</v>
+      </c>
+      <c r="C227">
+        <v>-22.1210129180241</v>
+      </c>
+      <c r="D227">
+        <v>149.203663493709</v>
+      </c>
+      <c r="E227" t="s">
         <v>37</v>
-      </c>
-      <c r="D227" t="s">
-        <v>37</v>
-      </c>
-      <c r="E227" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B228" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C228">
         <v>-22.8318768</v>
@@ -5321,10 +5564,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B229" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C229">
         <v>-21.422602699999999</v>
@@ -5338,44 +5581,44 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B230" t="s">
-        <v>238</v>
-      </c>
-      <c r="C230" t="s">
+        <v>237</v>
+      </c>
+      <c r="C230">
+        <v>-21.701513282215998</v>
+      </c>
+      <c r="D230">
+        <v>149.35181847739699</v>
+      </c>
+      <c r="E230" t="s">
         <v>37</v>
-      </c>
-      <c r="D230" t="s">
-        <v>37</v>
-      </c>
-      <c r="E230" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B231" t="s">
-        <v>239</v>
-      </c>
-      <c r="C231" t="s">
+        <v>238</v>
+      </c>
+      <c r="C231">
+        <v>-21.808721589389801</v>
+      </c>
+      <c r="D231">
+        <v>149.37196586098599</v>
+      </c>
+      <c r="E231" t="s">
         <v>37</v>
-      </c>
-      <c r="D231" t="s">
-        <v>37</v>
-      </c>
-      <c r="E231" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C232">
         <v>-21.149994800000002</v>
@@ -5389,10 +5632,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B233" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C233">
         <v>-21.048673699999998</v>
@@ -5406,10 +5649,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B234" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C234">
         <v>-21.673850399999999</v>
@@ -5423,10 +5666,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B235" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C235">
         <v>-21.353900299999999</v>
@@ -5440,10 +5683,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B236" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C236">
         <v>-21.961410799999999</v>
@@ -5457,10 +5700,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B237" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C237">
         <v>-22.484838499999999</v>
@@ -5474,10 +5717,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B238" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C238">
         <v>-22.813962700000001</v>
@@ -5491,10 +5734,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B239" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C239">
         <v>-21.030659499999999</v>
@@ -5508,10 +5751,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B240" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C240">
         <v>-21.162933299999999</v>
@@ -5525,10 +5768,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B241" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C241">
         <v>-21.146331100000001</v>
@@ -5542,10 +5785,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B242" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C242">
         <v>-21.2242265</v>
@@ -5559,78 +5802,78 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B243" t="s">
-        <v>251</v>
-      </c>
-      <c r="C243" t="s">
+        <v>250</v>
+      </c>
+      <c r="C243">
+        <v>-21.140049139150499</v>
+      </c>
+      <c r="D243">
+        <v>148.63447751360201</v>
+      </c>
+      <c r="E243" t="s">
         <v>37</v>
-      </c>
-      <c r="D243" t="s">
-        <v>37</v>
-      </c>
-      <c r="E243" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B244" t="s">
-        <v>252</v>
-      </c>
-      <c r="C244" t="s">
+        <v>251</v>
+      </c>
+      <c r="C244">
+        <v>-21.166548851420099</v>
+      </c>
+      <c r="D244">
+        <v>148.506519523935</v>
+      </c>
+      <c r="E244" t="s">
         <v>37</v>
-      </c>
-      <c r="D244" t="s">
-        <v>37</v>
-      </c>
-      <c r="E244" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B245" t="s">
-        <v>253</v>
-      </c>
-      <c r="C245" t="s">
+        <v>252</v>
+      </c>
+      <c r="C245">
+        <v>-20.8991265004206</v>
+      </c>
+      <c r="D245">
+        <v>148.770101810146</v>
+      </c>
+      <c r="E245" t="s">
         <v>37</v>
-      </c>
-      <c r="D245" t="s">
-        <v>37</v>
-      </c>
-      <c r="E245" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B246" t="s">
-        <v>254</v>
-      </c>
-      <c r="C246" t="s">
+        <v>253</v>
+      </c>
+      <c r="C246">
+        <v>-20.699983759733598</v>
+      </c>
+      <c r="D246">
+        <v>148.58959242970701</v>
+      </c>
+      <c r="E246" t="s">
         <v>37</v>
-      </c>
-      <c r="D246" t="s">
-        <v>37</v>
-      </c>
-      <c r="E246" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B247" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C247">
         <v>-20.404987800000001</v>
@@ -5644,27 +5887,27 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C248" t="s">
+        <v>348</v>
+      </c>
+      <c r="D248" t="s">
+        <v>348</v>
+      </c>
+      <c r="E248" t="s">
         <v>37</v>
-      </c>
-      <c r="D248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E248" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B249" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C249">
         <v>-20.2674989</v>
@@ -5678,10 +5921,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B250" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C250">
         <v>-20.346672699999999</v>
@@ -5695,10 +5938,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B251" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C251">
         <v>-20.553066099999999</v>
@@ -5712,10 +5955,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B252" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C252">
         <v>-20.204170399999999</v>
@@ -5729,10 +5972,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B253" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C253">
         <v>-19.924562399999999</v>
@@ -5746,10 +5989,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B254" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C254">
         <v>-19.920036400000001</v>
@@ -5763,27 +6006,27 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B255" t="s">
-        <v>263</v>
-      </c>
-      <c r="C255" t="s">
+        <v>262</v>
+      </c>
+      <c r="C255">
+        <v>-19.5541339676336</v>
+      </c>
+      <c r="D255">
+        <v>147.35358423893601</v>
+      </c>
+      <c r="E255" t="s">
         <v>37</v>
-      </c>
-      <c r="D255" t="s">
-        <v>37</v>
-      </c>
-      <c r="E255" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B256" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C256">
         <v>-19.570285299999998</v>
@@ -5797,10 +6040,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B257" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C257">
         <v>-19.356819999999999</v>
@@ -5814,10 +6057,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B258" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C258">
         <v>-19.360968</v>
@@ -5831,10 +6074,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C259">
         <v>-19.287364700000001</v>
@@ -5848,27 +6091,27 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
-      </c>
-      <c r="C260" t="s">
+        <v>267</v>
+      </c>
+      <c r="C260">
+        <v>-19.3173323377058</v>
+      </c>
+      <c r="D260">
+        <v>146.79582642561701</v>
+      </c>
+      <c r="E260" t="s">
         <v>37</v>
-      </c>
-      <c r="D260" t="s">
-        <v>37</v>
-      </c>
-      <c r="E260" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B261" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C261">
         <v>-19.2878252</v>
@@ -5882,10 +6125,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B262" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C262">
         <v>-19.388445600000001</v>
@@ -5899,10 +6142,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B263" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C263">
         <v>-21.1851758</v>
@@ -5916,10 +6159,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C264">
         <v>-19.3321474</v>
@@ -5933,10 +6176,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B265" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C265">
         <v>-19.2049974</v>
@@ -5950,10 +6193,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B266" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C266">
         <v>-19.1547801</v>
@@ -5967,10 +6210,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C267">
         <v>-20.0762578</v>
@@ -5984,10 +6227,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B268" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C268">
         <v>-20.846473799999998</v>
@@ -6001,10 +6244,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B269" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C269">
         <v>-20.031224000000002</v>
@@ -6018,27 +6261,27 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B270" t="s">
-        <v>278</v>
-      </c>
-      <c r="C270" t="s">
+        <v>277</v>
+      </c>
+      <c r="C270">
+        <v>-18.112642545271001</v>
+      </c>
+      <c r="D270">
+        <v>140.327471101534</v>
+      </c>
+      <c r="E270" t="s">
         <v>37</v>
-      </c>
-      <c r="D270" t="s">
-        <v>37</v>
-      </c>
-      <c r="E270" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B271" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C271">
         <v>-19.985330600000001</v>
@@ -6052,10 +6295,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B272" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C272">
         <v>-20.690568800000001</v>
@@ -6069,44 +6312,44 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B273" t="s">
-        <v>281</v>
-      </c>
-      <c r="C273" t="s">
+        <v>280</v>
+      </c>
+      <c r="C273">
+        <v>-19.915593172530201</v>
+      </c>
+      <c r="D273">
+        <v>138.18042831375999</v>
+      </c>
+      <c r="E273" t="s">
         <v>37</v>
-      </c>
-      <c r="D273" t="s">
-        <v>37</v>
-      </c>
-      <c r="E273" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
-      </c>
-      <c r="C274" t="s">
+        <v>281</v>
+      </c>
+      <c r="C274">
+        <v>-17.748357056092999</v>
+      </c>
+      <c r="D274">
+        <v>139.56256406453801</v>
+      </c>
+      <c r="E274" t="s">
         <v>37</v>
-      </c>
-      <c r="D274" t="s">
-        <v>37</v>
-      </c>
-      <c r="E274" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B275" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C275">
         <v>-18.3022077</v>
@@ -6120,27 +6363,27 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B276" t="s">
-        <v>284</v>
-      </c>
-      <c r="C276" t="s">
+        <v>283</v>
+      </c>
+      <c r="C276">
+        <v>-18.480560559125799</v>
+      </c>
+      <c r="D276">
+        <v>145.90114000539799</v>
+      </c>
+      <c r="E276" t="s">
         <v>37</v>
-      </c>
-      <c r="D276" t="s">
-        <v>37</v>
-      </c>
-      <c r="E276" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B277" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C277">
         <v>-17.8666147</v>
@@ -6154,10 +6397,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B278" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C278">
         <v>-17.983312999999999</v>
@@ -6171,10 +6414,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B279" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C279">
         <v>-17.8000401</v>
@@ -6188,44 +6431,44 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B280" t="s">
-        <v>288</v>
-      </c>
-      <c r="C280" t="s">
+        <v>287</v>
+      </c>
+      <c r="C280">
+        <v>-17.716658665339299</v>
+      </c>
+      <c r="D280">
+        <v>146.02592198427701</v>
+      </c>
+      <c r="E280" t="s">
         <v>37</v>
-      </c>
-      <c r="D280" t="s">
-        <v>37</v>
-      </c>
-      <c r="E280" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B281" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C281" t="s">
+        <v>348</v>
+      </c>
+      <c r="D281" t="s">
+        <v>348</v>
+      </c>
+      <c r="E281" t="s">
         <v>37</v>
-      </c>
-      <c r="D281" t="s">
-        <v>37</v>
-      </c>
-      <c r="E281" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B282" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C282">
         <v>-17.583319100000001</v>
@@ -6239,27 +6482,27 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
-      </c>
-      <c r="C283" t="s">
+        <v>290</v>
+      </c>
+      <c r="C283">
+        <v>-17.590556261798199</v>
+      </c>
+      <c r="D283">
+        <v>145.963204579478</v>
+      </c>
+      <c r="E283" t="s">
         <v>37</v>
-      </c>
-      <c r="D283" t="s">
-        <v>37</v>
-      </c>
-      <c r="E283" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C284">
         <v>-17.5226829</v>
@@ -6273,10 +6516,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C285">
         <v>-17.340739899999999</v>
@@ -6290,10 +6533,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C286">
         <v>-17.0923129</v>
@@ -6307,10 +6550,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C287">
         <v>-16.9678678</v>
@@ -6324,10 +6567,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B288" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C288">
         <v>-17.0187557</v>
@@ -6341,10 +6584,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C289">
         <v>-16.918648000000001</v>
@@ -6358,10 +6601,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B290" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C290">
         <v>-18.547146699999999</v>
@@ -6375,10 +6618,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C291">
         <v>-18.017841799999999</v>
@@ -6392,10 +6635,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B292" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C292">
         <v>-16.244647799999999</v>
@@ -6409,10 +6652,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C293">
         <v>-12.631871800000001</v>
@@ -6426,10 +6669,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C294">
         <v>-10.5799693</v>
@@ -6443,10 +6686,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C295">
         <v>-10.8500975</v>
@@ -6460,10 +6703,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C296">
         <v>-16.525709800000001</v>
@@ -6477,10 +6720,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C297">
         <v>-16.8314187</v>
@@ -6494,10 +6737,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C298">
         <v>-16.7705777</v>
@@ -6511,10 +6754,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B299" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C299">
         <v>-16.994112900000001</v>
@@ -6528,10 +6771,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C300">
         <v>-16.8167422</v>
@@ -6545,10 +6788,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C301">
         <v>-17.203174400000002</v>
@@ -6562,10 +6805,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C302">
         <v>-17.2661339</v>
@@ -6579,10 +6822,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B303" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C303">
         <v>-17.2711364</v>
@@ -6596,10 +6839,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B304" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C304">
         <v>-17.353583799999999</v>
@@ -6613,10 +6856,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C305">
         <v>-17.512140200000001</v>
@@ -6630,10 +6873,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B306" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C306">
         <v>-17.431858099999999</v>
@@ -6647,10 +6890,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B307" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C307">
         <v>-17.5839985</v>
@@ -6664,10 +6907,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B308" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C308">
         <v>-17.512358299999999</v>
@@ -6681,10 +6924,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B309" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C309">
         <v>-17.491239100000001</v>
@@ -6698,10 +6941,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B310" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C310">
         <v>-15.2903067</v>
@@ -6715,10 +6958,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B311" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C311">
         <v>-15.9452239</v>
@@ -6732,10 +6975,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B312" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C312">
         <v>-21.916267099999999</v>
@@ -6749,61 +6992,61 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B313" t="s">
-        <v>321</v>
-      </c>
-      <c r="C313" t="s">
+        <v>320</v>
+      </c>
+      <c r="C313">
+        <v>-21.4557087436472</v>
+      </c>
+      <c r="D313">
+        <v>115.001528107681</v>
+      </c>
+      <c r="E313" t="s">
         <v>37</v>
-      </c>
-      <c r="D313" t="s">
-        <v>37</v>
-      </c>
-      <c r="E313" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B314" t="s">
-        <v>322</v>
-      </c>
-      <c r="C314" t="s">
+        <v>321</v>
+      </c>
+      <c r="C314">
+        <v>-20.777973219924402</v>
+      </c>
+      <c r="D314">
+        <v>115.403763659406</v>
+      </c>
+      <c r="E314" t="s">
         <v>37</v>
-      </c>
-      <c r="D314" t="s">
-        <v>37</v>
-      </c>
-      <c r="E314" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B315" t="s">
-        <v>323</v>
-      </c>
-      <c r="C315" t="s">
+        <v>322</v>
+      </c>
+      <c r="C315">
+        <v>-20.662444735740301</v>
+      </c>
+      <c r="D315">
+        <v>116.712399795843</v>
+      </c>
+      <c r="E315" t="s">
         <v>37</v>
-      </c>
-      <c r="D315" t="s">
-        <v>37</v>
-      </c>
-      <c r="E315" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B316" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C316">
         <v>-20.967770999999999</v>
@@ -6817,27 +7060,27 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B317" t="s">
-        <v>325</v>
-      </c>
-      <c r="C317" t="s">
+        <v>324</v>
+      </c>
+      <c r="C317">
+        <v>-21.627031209940998</v>
+      </c>
+      <c r="D317">
+        <v>117.277844068815</v>
+      </c>
+      <c r="E317" t="s">
         <v>37</v>
-      </c>
-      <c r="D317" t="s">
-        <v>37</v>
-      </c>
-      <c r="E317" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B318" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C318">
         <v>-20.750550700000002</v>
@@ -6851,27 +7094,27 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B319" t="s">
-        <v>327</v>
-      </c>
-      <c r="C319" t="s">
+        <v>326</v>
+      </c>
+      <c r="C319">
+        <v>-20.678355631510499</v>
+      </c>
+      <c r="D319">
+        <v>117.18748768050401</v>
+      </c>
+      <c r="E319" t="s">
         <v>37</v>
-      </c>
-      <c r="D319" t="s">
-        <v>37</v>
-      </c>
-      <c r="E319" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B320" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C320">
         <v>-20.878014100000001</v>
@@ -6885,10 +7128,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B321" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C321">
         <v>-20.2571534</v>
@@ -6902,27 +7145,27 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B322" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C322" t="s">
+        <v>348</v>
+      </c>
+      <c r="D322" t="s">
+        <v>348</v>
+      </c>
+      <c r="E322" t="s">
         <v>37</v>
-      </c>
-      <c r="D322" t="s">
-        <v>37</v>
-      </c>
-      <c r="E322" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B323" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C323">
         <v>-18.983338400000001</v>
@@ -6936,10 +7179,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B324" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C324">
         <v>-17.952164400000001</v>
@@ -6953,10 +7196,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B325" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C325">
         <v>-17.0965983</v>
@@ -6970,61 +7213,61 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B326" t="s">
-        <v>334</v>
-      </c>
-      <c r="C326" t="s">
+        <v>333</v>
+      </c>
+      <c r="C326">
+        <v>-16.094633711837499</v>
+      </c>
+      <c r="D326">
+        <v>123.609327278761</v>
+      </c>
+      <c r="E326" t="s">
         <v>37</v>
-      </c>
-      <c r="D326" t="s">
-        <v>37</v>
-      </c>
-      <c r="E326" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B327" t="s">
-        <v>335</v>
-      </c>
-      <c r="C327" t="s">
+        <v>334</v>
+      </c>
+      <c r="C327">
+        <v>-16.130905151910699</v>
+      </c>
+      <c r="D327">
+        <v>123.755784241911</v>
+      </c>
+      <c r="E327" t="s">
         <v>37</v>
-      </c>
-      <c r="D327" t="s">
-        <v>37</v>
-      </c>
-      <c r="E327" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B328" t="s">
-        <v>336</v>
-      </c>
-      <c r="C328" t="s">
+        <v>335</v>
+      </c>
+      <c r="C328">
+        <v>-14.2913515066766</v>
+      </c>
+      <c r="D328">
+        <v>126.645389990468</v>
+      </c>
+      <c r="E328" t="s">
         <v>37</v>
-      </c>
-      <c r="D328" t="s">
-        <v>37</v>
-      </c>
-      <c r="E328" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B329" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C329">
         <v>-16.6687048</v>
@@ -7038,10 +7281,10 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B330" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C330">
         <v>-22.723526499999998</v>
@@ -7055,10 +7298,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B331" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C331">
         <v>-22.9798905</v>
@@ -7072,95 +7315,95 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B332" t="s">
-        <v>340</v>
-      </c>
-      <c r="C332" t="s">
+        <v>339</v>
+      </c>
+      <c r="C332">
+        <v>-23.203098657404901</v>
+      </c>
+      <c r="D332">
+        <v>117.66469057438999</v>
+      </c>
+      <c r="E332" t="s">
         <v>37</v>
-      </c>
-      <c r="D332" t="s">
-        <v>37</v>
-      </c>
-      <c r="E332" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>182</v>
-      </c>
-      <c r="B333" t="s">
-        <v>341</v>
-      </c>
-      <c r="C333" t="s">
+        <v>181</v>
+      </c>
+      <c r="B333">
+        <v>6758</v>
+      </c>
+      <c r="C333">
+        <v>-21.920147118564799</v>
+      </c>
+      <c r="D333">
+        <v>120.124109890239</v>
+      </c>
+      <c r="E333" t="s">
         <v>37</v>
-      </c>
-      <c r="D333" t="s">
-        <v>37</v>
-      </c>
-      <c r="E333" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>182</v>
-      </c>
-      <c r="B334" t="s">
-        <v>342</v>
-      </c>
-      <c r="C334" t="s">
+        <v>181</v>
+      </c>
+      <c r="B334">
+        <v>6760</v>
+      </c>
+      <c r="C334">
+        <v>-21.164425561409399</v>
+      </c>
+      <c r="D334">
+        <v>119.723698660392</v>
+      </c>
+      <c r="E334" t="s">
         <v>37</v>
-      </c>
-      <c r="D334" t="s">
-        <v>37</v>
-      </c>
-      <c r="E334" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B335" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C335" t="s">
+        <v>348</v>
+      </c>
+      <c r="D335" t="s">
+        <v>348</v>
+      </c>
+      <c r="E335" t="s">
         <v>37</v>
-      </c>
-      <c r="D335" t="s">
-        <v>37</v>
-      </c>
-      <c r="E335" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B336" t="s">
-        <v>344</v>
-      </c>
-      <c r="C336" t="s">
+        <v>341</v>
+      </c>
+      <c r="C336">
+        <v>-21.694348395839398</v>
+      </c>
+      <c r="D336">
+        <v>122.14095332205299</v>
+      </c>
+      <c r="E336" t="s">
         <v>37</v>
-      </c>
-      <c r="D336" t="s">
-        <v>37</v>
-      </c>
-      <c r="E336" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B337" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C337">
         <v>-17.826415799999999</v>
@@ -7174,10 +7417,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B338" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C338">
         <v>-18.819863099999999</v>
@@ -7191,10 +7434,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B339" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C339">
         <v>-10.4858403</v>
@@ -7208,22 +7451,36 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B340" t="s">
-        <v>348</v>
-      </c>
-      <c r="C340" t="s">
+        <v>345</v>
+      </c>
+      <c r="C340">
+        <v>-12.1893534868101</v>
+      </c>
+      <c r="D340">
+        <v>96.829596888848201</v>
+      </c>
+      <c r="E340" t="s">
         <v>37</v>
       </c>
-      <c r="D340" t="s">
-        <v>37</v>
-      </c>
-      <c r="E340" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:E340">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$G$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>